--- a/Code/Results/Cases/Case_4_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_178/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.016769596201186</v>
+        <v>1.07147481780612</v>
       </c>
       <c r="C2">
-        <v>0.312043914109239</v>
+        <v>0.1505716068514715</v>
       </c>
       <c r="D2">
-        <v>0.2396739840115885</v>
+        <v>0.4994831905231933</v>
       </c>
       <c r="E2">
-        <v>0.05776313579872383</v>
+        <v>0.1661831055101555</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4835248719949021</v>
+        <v>0.8712310472525502</v>
       </c>
       <c r="H2">
-        <v>0.3771797330012845</v>
+        <v>0.9322945684911446</v>
       </c>
       <c r="I2">
-        <v>0.354241890088911</v>
+        <v>0.8968753586928635</v>
       </c>
       <c r="J2">
-        <v>0.04566336560562689</v>
+        <v>0.07343083413343265</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2471866644607417</v>
+        <v>0.4039308553848429</v>
       </c>
       <c r="M2">
-        <v>0.3977187312064103</v>
+        <v>0.3116996718322582</v>
       </c>
       <c r="N2">
-        <v>0.8746396597492634</v>
+        <v>1.548647876229367</v>
       </c>
       <c r="O2">
-        <v>1.76271671237302</v>
+        <v>3.637079126767588</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.756636053390167</v>
+        <v>0.9959660809057311</v>
       </c>
       <c r="C3">
-        <v>0.281421859669166</v>
+        <v>0.1404075253503265</v>
       </c>
       <c r="D3">
-        <v>0.2289231011664299</v>
+        <v>0.4996369840122554</v>
       </c>
       <c r="E3">
-        <v>0.05881509369536619</v>
+        <v>0.1672562153226762</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4609532404623309</v>
+        <v>0.8726728086065805</v>
       </c>
       <c r="H3">
-        <v>0.3726010492163851</v>
+        <v>0.9371218484723016</v>
       </c>
       <c r="I3">
-        <v>0.357474040762046</v>
+        <v>0.9044650962084653</v>
       </c>
       <c r="J3">
-        <v>0.04425656103735243</v>
+        <v>0.07296005079637702</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2273723357496209</v>
+        <v>0.4005201903401172</v>
       </c>
       <c r="M3">
-        <v>0.3492451268148713</v>
+        <v>0.2986662708220607</v>
       </c>
       <c r="N3">
-        <v>0.8981255606862391</v>
+        <v>1.560240809084668</v>
       </c>
       <c r="O3">
-        <v>1.704890912255991</v>
+        <v>3.649942526620521</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.597155950191905</v>
+        <v>0.9497881442851508</v>
       </c>
       <c r="C4">
-        <v>0.2625742700208207</v>
+        <v>0.1341192277122047</v>
       </c>
       <c r="D4">
-        <v>0.222619527217006</v>
+        <v>0.4999333261048235</v>
       </c>
       <c r="E4">
-        <v>0.05952365637572932</v>
+        <v>0.167962015210791</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4480691649034014</v>
+        <v>0.8740716889541602</v>
       </c>
       <c r="H4">
-        <v>0.3703921990242947</v>
+        <v>0.940470010686397</v>
       </c>
       <c r="I4">
-        <v>0.3601862775568954</v>
+        <v>0.9095532417891796</v>
       </c>
       <c r="J4">
-        <v>0.04339247826636417</v>
+        <v>0.07266950212124001</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2154135013419207</v>
+        <v>0.3985731334425182</v>
       </c>
       <c r="M4">
-        <v>0.3196060883855552</v>
+        <v>0.290754051827939</v>
       </c>
       <c r="N4">
-        <v>0.913533038884637</v>
+        <v>1.567874146285376</v>
       </c>
       <c r="O4">
-        <v>1.672703032703339</v>
+        <v>3.659723098537683</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.532210757355671</v>
+        <v>0.9310181938827498</v>
       </c>
       <c r="C5">
-        <v>0.2548806752419068</v>
+        <v>0.13154489459491</v>
       </c>
       <c r="D5">
-        <v>0.2201226621753847</v>
+        <v>0.5001049640361686</v>
       </c>
       <c r="E5">
-        <v>0.05982789008822742</v>
+        <v>0.1682614480287565</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4430516098134305</v>
+        <v>0.87477090813519</v>
       </c>
       <c r="H5">
-        <v>0.3696380439598244</v>
+        <v>0.9419311205421934</v>
       </c>
       <c r="I5">
-        <v>0.3614679151561191</v>
+        <v>0.9117343536879936</v>
       </c>
       <c r="J5">
-        <v>0.04304021319677709</v>
+        <v>0.07255073599408668</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2105895058227247</v>
+        <v>0.3978168245154734</v>
       </c>
       <c r="M5">
-        <v>0.3075552903282031</v>
+        <v>0.2875527584070099</v>
       </c>
       <c r="N5">
-        <v>0.9200539735029309</v>
+        <v>1.571114498157982</v>
       </c>
       <c r="O5">
-        <v>1.660382600531506</v>
+        <v>3.66418231649115</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.521428856437495</v>
+        <v>0.927904396607147</v>
       </c>
       <c r="C6">
-        <v>0.2536023268261687</v>
+        <v>0.1311167201082952</v>
       </c>
       <c r="D6">
-        <v>0.2197123188669394</v>
+        <v>0.5001365402246307</v>
       </c>
       <c r="E6">
-        <v>0.05987933573478621</v>
+        <v>0.1683118826847343</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4422321589632858</v>
+        <v>0.8748948143502062</v>
       </c>
       <c r="H6">
-        <v>0.3695214764045858</v>
+        <v>0.9421795804514659</v>
       </c>
       <c r="I6">
-        <v>0.3616911952980857</v>
+        <v>0.9121030282148546</v>
       </c>
       <c r="J6">
-        <v>0.04298170921127031</v>
+        <v>0.07253099316139355</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2097913854313731</v>
+        <v>0.3976934868821189</v>
       </c>
       <c r="M6">
-        <v>0.3055558088865737</v>
+        <v>0.2870225835476461</v>
       </c>
       <c r="N6">
-        <v>0.9211512335889012</v>
+        <v>1.571660394346473</v>
       </c>
       <c r="O6">
-        <v>1.658383829557664</v>
+        <v>3.664951374101605</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.596279919016496</v>
+        <v>0.9495348101247316</v>
       </c>
       <c r="C7">
-        <v>0.2624705663854172</v>
+        <v>0.1340845569419002</v>
       </c>
       <c r="D7">
-        <v>0.2225855662952085</v>
+        <v>0.4999354347403511</v>
       </c>
       <c r="E7">
-        <v>0.05952769700962168</v>
+        <v>0.1679660056084815</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4480005696883183</v>
+        <v>0.8740805958796329</v>
       </c>
       <c r="H7">
-        <v>0.3703814443219073</v>
+        <v>0.9404893240335497</v>
       </c>
       <c r="I7">
-        <v>0.360202856533359</v>
+        <v>0.9095822211207292</v>
       </c>
       <c r="J7">
-        <v>0.04338772816850778</v>
+        <v>0.0726679018671792</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2153482471112937</v>
+        <v>0.3985627830592762</v>
       </c>
       <c r="M7">
-        <v>0.3194434612584161</v>
+        <v>0.2907107845638492</v>
       </c>
       <c r="N7">
-        <v>0.9136200092111793</v>
+        <v>1.567917321437456</v>
       </c>
       <c r="O7">
-        <v>1.672533699188108</v>
+        <v>3.659781319422422</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.927014604037794</v>
+        <v>1.045401927692637</v>
       </c>
       <c r="C8">
-        <v>0.3014938720959606</v>
+        <v>0.1470769771098048</v>
       </c>
       <c r="D8">
-        <v>0.2359035303718287</v>
+        <v>0.4994943727652981</v>
       </c>
       <c r="E8">
-        <v>0.05811268294385918</v>
+        <v>0.16654338968047</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4755321914328903</v>
+        <v>0.8716215640661744</v>
       </c>
       <c r="H8">
-        <v>0.3754725486735424</v>
+        <v>0.9338793336329445</v>
       </c>
       <c r="I8">
-        <v>0.3552012417497679</v>
+        <v>0.8994034793374617</v>
       </c>
       <c r="J8">
-        <v>0.04517831785449999</v>
+        <v>0.0732688213376953</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2403099440497414</v>
+        <v>0.4027244095570524</v>
       </c>
       <c r="M8">
-        <v>0.3809769283177076</v>
+        <v>0.3071871698101347</v>
       </c>
       <c r="N8">
-        <v>0.8825290800506096</v>
+        <v>1.552538270933205</v>
       </c>
       <c r="O8">
-        <v>1.742066546643684</v>
+        <v>3.641123858186802</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.578353059686208</v>
+        <v>1.234807303640537</v>
       </c>
       <c r="C9">
-        <v>0.3777385897333829</v>
+        <v>0.1721727956166887</v>
       </c>
       <c r="D9">
-        <v>0.2645202284742112</v>
+        <v>0.5002274296283673</v>
       </c>
       <c r="E9">
-        <v>0.0558474917658911</v>
+        <v>0.1641249814005548</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5378463145231791</v>
+        <v>0.8708756163105136</v>
       </c>
       <c r="H9">
-        <v>0.3904997728504469</v>
+        <v>0.9239615807618975</v>
       </c>
       <c r="I9">
-        <v>0.3514791035556186</v>
+        <v>0.8828382079542898</v>
       </c>
       <c r="J9">
-        <v>0.04869083957603593</v>
+        <v>0.0744351159199077</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2910393334403665</v>
+        <v>0.4120470853220581</v>
       </c>
       <c r="M9">
-        <v>0.502816135457735</v>
+        <v>0.3402034879359448</v>
       </c>
       <c r="N9">
-        <v>0.8296719687401364</v>
+        <v>1.526461673794842</v>
       </c>
       <c r="O9">
-        <v>1.906541680601435</v>
+        <v>3.619466189120004</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.059871032445812</v>
+        <v>1.374762587539237</v>
       </c>
       <c r="C10">
-        <v>0.4337119274909469</v>
+        <v>0.1903721637962406</v>
       </c>
       <c r="D10">
-        <v>0.2872752368021736</v>
+        <v>0.5017353195370333</v>
       </c>
       <c r="E10">
-        <v>0.05451203785556658</v>
+        <v>0.1625733925628623</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5895697708465946</v>
+        <v>0.8728151257351158</v>
       </c>
       <c r="H10">
-        <v>0.4050022941327427</v>
+        <v>0.9185261115771794</v>
       </c>
       <c r="I10">
-        <v>0.3529109902677376</v>
+        <v>0.87273646567618</v>
       </c>
       <c r="J10">
-        <v>0.05127781974487888</v>
+        <v>0.07528426341360017</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3295975307403438</v>
+        <v>0.4195984328497389</v>
       </c>
       <c r="M10">
-        <v>0.5933335364860071</v>
+        <v>0.3648793957207772</v>
       </c>
       <c r="N10">
-        <v>0.7961921148404443</v>
+        <v>1.509782812940124</v>
       </c>
       <c r="O10">
-        <v>2.047173659808379</v>
+        <v>3.612651561239375</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.279883825978175</v>
+        <v>1.438593411178601</v>
       </c>
       <c r="C11">
-        <v>0.4591971352421922</v>
+        <v>0.1985986680425356</v>
       </c>
       <c r="D11">
-        <v>0.2980513390860438</v>
+        <v>0.5026307893978412</v>
       </c>
       <c r="E11">
-        <v>0.05398010986812274</v>
+        <v>0.1619161923885155</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6145948700601309</v>
+        <v>0.8742382633086692</v>
       </c>
       <c r="H11">
-        <v>0.4124432059091845</v>
+        <v>0.9164543427391152</v>
       </c>
       <c r="I11">
-        <v>0.3545745106700373</v>
+        <v>0.8685899390281406</v>
       </c>
       <c r="J11">
-        <v>0.05245746230236747</v>
+        <v>0.07566881501891132</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3474663103966549</v>
+        <v>0.4231849100983425</v>
       </c>
       <c r="M11">
-        <v>0.634798749596861</v>
+        <v>0.3761937301382119</v>
       </c>
       <c r="N11">
-        <v>0.7822202870798378</v>
+        <v>1.502731829240467</v>
       </c>
       <c r="O11">
-        <v>2.116074356154968</v>
+        <v>3.611526225930049</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.363363011856848</v>
+        <v>1.46278681161067</v>
       </c>
       <c r="C12">
-        <v>0.4688536695654477</v>
+        <v>0.20170615669889</v>
       </c>
       <c r="D12">
-        <v>0.302197306723329</v>
+        <v>0.5029999156200375</v>
       </c>
       <c r="E12">
-        <v>0.053789924037563</v>
+        <v>0.1616743013841777</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6243044950014678</v>
+        <v>0.8748549659474492</v>
       </c>
       <c r="H12">
-        <v>0.4153903524207578</v>
+        <v>0.9157273743949332</v>
       </c>
       <c r="I12">
-        <v>0.355359551681758</v>
+        <v>0.8670842830317795</v>
       </c>
       <c r="J12">
-        <v>0.05290468769677403</v>
+        <v>0.07581417834400028</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3542842030892359</v>
+        <v>0.424564649336503</v>
       </c>
       <c r="M12">
-        <v>0.6505480026249231</v>
+        <v>0.3804907399311119</v>
       </c>
       <c r="N12">
-        <v>0.7771191190618936</v>
+        <v>1.5001388017549</v>
       </c>
       <c r="O12">
-        <v>2.14292929224959</v>
+        <v>3.611383926879142</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.345376498080611</v>
+        <v>1.457575374548526</v>
       </c>
       <c r="C13">
-        <v>0.466773658977985</v>
+        <v>0.2010372489195333</v>
       </c>
       <c r="D13">
-        <v>0.3013014245842243</v>
+        <v>0.5029190835971349</v>
       </c>
       <c r="E13">
-        <v>0.05383037767809462</v>
+        <v>0.1617260869121377</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6222026831024721</v>
+        <v>0.8747186879254087</v>
       </c>
       <c r="H13">
-        <v>0.4147497399403761</v>
+        <v>0.9158813810095694</v>
       </c>
       <c r="I13">
-        <v>0.3551834221493948</v>
+        <v>0.8674056823011185</v>
       </c>
       <c r="J13">
-        <v>0.05280834460211281</v>
+        <v>0.07578288337386141</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3528134940616496</v>
+        <v>0.4242665386103539</v>
       </c>
       <c r="M13">
-        <v>0.6471539195592015</v>
+        <v>0.3795647500912693</v>
       </c>
       <c r="N13">
-        <v>0.7782091671460805</v>
+        <v>1.500693832281407</v>
       </c>
       <c r="O13">
-        <v>2.137110713700224</v>
+        <v>3.611401951460124</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.286748244163505</v>
+        <v>1.440583383960075</v>
       </c>
       <c r="C14">
-        <v>0.4599914515427201</v>
+        <v>0.1988544784589692</v>
       </c>
       <c r="D14">
-        <v>0.2983910967069932</v>
+        <v>0.5026605563254236</v>
       </c>
       <c r="E14">
-        <v>0.05396423559528607</v>
+        <v>0.1618961521422211</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6153889060841209</v>
+        <v>0.8742874406492973</v>
       </c>
       <c r="H14">
-        <v>0.412683026920007</v>
+        <v>0.916393381354851</v>
       </c>
       <c r="I14">
-        <v>0.3546359310809706</v>
+        <v>0.8684647742188147</v>
       </c>
       <c r="J14">
-        <v>0.05249424467372066</v>
+        <v>0.07568077937137474</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.348026168192817</v>
+        <v>0.4232979896357136</v>
       </c>
       <c r="M14">
-        <v>0.6360934678602703</v>
+        <v>0.3765469985876706</v>
       </c>
       <c r="N14">
-        <v>0.7817967580089586</v>
+        <v>1.502516956098489</v>
       </c>
       <c r="O14">
-        <v>2.118268091551812</v>
+        <v>3.611508830966329</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.250859051706641</v>
+        <v>1.430178123666792</v>
       </c>
       <c r="C15">
-        <v>0.4558379944175215</v>
+        <v>0.1975164596128138</v>
       </c>
       <c r="D15">
-        <v>0.2966170693644585</v>
+        <v>0.5025061089502003</v>
       </c>
       <c r="E15">
-        <v>0.05404770321990426</v>
+        <v>0.162001230076104</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.611246192090249</v>
+        <v>0.8740334205002114</v>
       </c>
       <c r="H15">
-        <v>0.4114342119607102</v>
+        <v>0.9167144908135754</v>
       </c>
       <c r="I15">
-        <v>0.3543210698516361</v>
+        <v>0.8691219042610498</v>
       </c>
       <c r="J15">
-        <v>0.0523019207872224</v>
+        <v>0.07561820384416151</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.345100610981973</v>
+        <v>0.4227075364970716</v>
       </c>
       <c r="M15">
-        <v>0.6293249581821243</v>
+        <v>0.3747001597876292</v>
       </c>
       <c r="N15">
-        <v>0.7840192281661302</v>
+        <v>1.503643700538397</v>
       </c>
       <c r="O15">
-        <v>2.10682760676238</v>
+        <v>3.61161125880335</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.045514328365016</v>
+        <v>1.370594265970794</v>
       </c>
       <c r="C16">
-        <v>0.4320470808941934</v>
+        <v>0.1898334723956054</v>
       </c>
       <c r="D16">
-        <v>0.2865798942905826</v>
+        <v>0.5016810062443682</v>
       </c>
       <c r="E16">
-        <v>0.05454835305700456</v>
+        <v>0.1626173192511633</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5879659391154775</v>
+        <v>0.8727330051320337</v>
       </c>
       <c r="H16">
-        <v>0.4045336712547112</v>
+        <v>0.9186695661761775</v>
       </c>
       <c r="I16">
-        <v>0.3528234455209756</v>
+        <v>0.8730164825764639</v>
       </c>
       <c r="J16">
-        <v>0.05120079359293683</v>
+        <v>0.07525909645992357</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3284367210756756</v>
+        <v>0.4193670810626742</v>
       </c>
       <c r="M16">
-        <v>0.5906299773201908</v>
+        <v>0.3641417453189675</v>
       </c>
       <c r="N16">
-        <v>0.7971312601344778</v>
+        <v>1.510254395165269</v>
       </c>
       <c r="O16">
-        <v>2.042774617015823</v>
+        <v>3.612764830256282</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.91980773853885</v>
+        <v>1.334082485328167</v>
       </c>
       <c r="C17">
-        <v>0.4174596982871321</v>
+        <v>0.1851066509414636</v>
       </c>
       <c r="D17">
-        <v>0.2805341145615614</v>
+        <v>0.5012284266735918</v>
       </c>
       <c r="E17">
-        <v>0.05487510347516</v>
+        <v>0.1630077128354461</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5740798621711036</v>
+        <v>0.872073779239372</v>
       </c>
       <c r="H17">
-        <v>0.4005221007892601</v>
+        <v>0.9199715551005596</v>
       </c>
       <c r="I17">
-        <v>0.3521705485831319</v>
+        <v>0.8755206344861826</v>
       </c>
       <c r="J17">
-        <v>0.050526087241483</v>
+        <v>0.07503834605441995</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3183009501970702</v>
+        <v>0.4173564775657894</v>
       </c>
       <c r="M17">
-        <v>0.5669697249191188</v>
+        <v>0.3576871164573063</v>
       </c>
       <c r="N17">
-        <v>0.8055033875997495</v>
+        <v>1.514447136715845</v>
       </c>
       <c r="O17">
-        <v>2.004780203727705</v>
+        <v>3.613978189044218</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.847594067023522</v>
+        <v>1.313097450148803</v>
       </c>
       <c r="C18">
-        <v>0.4090713870673426</v>
+        <v>0.1823829783917859</v>
       </c>
       <c r="D18">
-        <v>0.2770964525066972</v>
+        <v>0.5009878420467544</v>
       </c>
       <c r="E18">
-        <v>0.05507013160114482</v>
+        <v>0.1632368346904656</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.566232604062094</v>
+        <v>0.8717455157849798</v>
       </c>
       <c r="H18">
-        <v>0.3982936422279835</v>
+        <v>0.9207581594697984</v>
       </c>
       <c r="I18">
-        <v>0.351889680922767</v>
+        <v>0.8770031998796526</v>
       </c>
       <c r="J18">
-        <v>0.05013827114947134</v>
+        <v>0.07491121399191769</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3125017751068668</v>
+        <v>0.4162142841872765</v>
       </c>
       <c r="M18">
-        <v>0.5533877465948436</v>
+        <v>0.353982992945582</v>
       </c>
       <c r="N18">
-        <v>0.8104367006434217</v>
+        <v>1.516909176532216</v>
       </c>
       <c r="O18">
-        <v>1.98338700780252</v>
+        <v>3.61486195342917</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.82315835976425</v>
+        <v>1.305995001580641</v>
       </c>
       <c r="C19">
-        <v>0.4062315114093451</v>
+        <v>0.1814599479391461</v>
       </c>
       <c r="D19">
-        <v>0.2759392153317037</v>
+        <v>0.5009097753710421</v>
       </c>
       <c r="E19">
-        <v>0.05513737135862584</v>
+        <v>0.1633151981375782</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5635991103597746</v>
+        <v>0.8716431139704781</v>
       </c>
       <c r="H19">
-        <v>0.397552435223929</v>
+        <v>0.9210309735205726</v>
       </c>
       <c r="I19">
-        <v>0.3518105606937745</v>
+        <v>0.8775124262255005</v>
       </c>
       <c r="J19">
-        <v>0.05000700408828962</v>
+        <v>0.0748681416729724</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3105434169824548</v>
+        <v>0.4158300093917546</v>
       </c>
       <c r="M19">
-        <v>0.5487935502603705</v>
+        <v>0.3527302936899446</v>
       </c>
       <c r="N19">
-        <v>0.8121270259714066</v>
+        <v>1.517751454827653</v>
       </c>
       <c r="O19">
-        <v>1.976221049795214</v>
+        <v>3.61519310812119</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.933179981729381</v>
+        <v>1.337967626289696</v>
       </c>
       <c r="C20">
-        <v>0.4190123286367111</v>
+        <v>0.1856103405635281</v>
       </c>
       <c r="D20">
-        <v>0.2811735585449497</v>
+        <v>0.5012745635633564</v>
       </c>
       <c r="E20">
-        <v>0.05483958389816834</v>
+        <v>0.1629656811028255</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5755434788388101</v>
+        <v>0.8721386862603566</v>
       </c>
       <c r="H20">
-        <v>0.4009409173098533</v>
+        <v>0.919829051304248</v>
       </c>
       <c r="I20">
-        <v>0.3522301861732764</v>
+        <v>0.8752496911594463</v>
       </c>
       <c r="J20">
-        <v>0.05059788346336092</v>
+        <v>0.07506186217337785</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.319376718815775</v>
+        <v>0.4175690356901498</v>
       </c>
       <c r="M20">
-        <v>0.5694855875379545</v>
+        <v>0.3583733546758552</v>
       </c>
       <c r="N20">
-        <v>0.8045998980842413</v>
+        <v>1.513995587826635</v>
       </c>
       <c r="O20">
-        <v>2.008776757264997</v>
+        <v>3.613829788646285</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.303964085918437</v>
+        <v>1.445573757695854</v>
       </c>
       <c r="C21">
-        <v>0.4619833701386256</v>
+        <v>0.1994958216035059</v>
       </c>
       <c r="D21">
-        <v>0.2992441236436747</v>
+        <v>0.5027356777938081</v>
       </c>
       <c r="E21">
-        <v>0.05392461002720239</v>
+        <v>0.1618460106488566</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6173837996828553</v>
+        <v>0.8744119970511264</v>
       </c>
       <c r="H21">
-        <v>0.4132864904054827</v>
+        <v>0.9162414327394544</v>
       </c>
       <c r="I21">
-        <v>0.3547924538665583</v>
+        <v>0.8681519415071577</v>
       </c>
       <c r="J21">
-        <v>0.05258648833696</v>
+        <v>0.07571077686836958</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3494308931630741</v>
+        <v>0.423581890377605</v>
       </c>
       <c r="M21">
-        <v>0.6393408591803151</v>
+        <v>0.377433048050662</v>
       </c>
       <c r="N21">
-        <v>0.7807377761584036</v>
+        <v>1.501979370680914</v>
       </c>
       <c r="O21">
-        <v>2.123781439736774</v>
+        <v>3.611469735421451</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.547268812701759</v>
+        <v>1.516028386314701</v>
       </c>
       <c r="C22">
-        <v>0.4901028229940323</v>
+        <v>0.2085257708558572</v>
       </c>
       <c r="D22">
-        <v>0.3114370022816928</v>
+        <v>0.5038655998717019</v>
       </c>
       <c r="E22">
-        <v>0.05339234879426513</v>
+        <v>0.1611548980226853</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6460971801619451</v>
+        <v>0.8763511723666397</v>
       </c>
       <c r="H22">
-        <v>0.4221136459983512</v>
+        <v>0.9142322173255053</v>
       </c>
       <c r="I22">
-        <v>0.3573759783529482</v>
+        <v>0.8638893643298147</v>
       </c>
       <c r="J22">
-        <v>0.05388925128735522</v>
+        <v>0.07613337189091141</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3693746084397844</v>
+        <v>0.4276375792486391</v>
       </c>
       <c r="M22">
-        <v>0.6852738863348122</v>
+        <v>0.3899624779303821</v>
       </c>
       <c r="N22">
-        <v>0.7662524210820223</v>
+        <v>1.494575009542196</v>
       </c>
       <c r="O22">
-        <v>2.203423656535762</v>
+        <v>3.611581692656188</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.417314123392714</v>
+        <v>1.478414258285852</v>
       </c>
       <c r="C23">
-        <v>0.4750907927459878</v>
+        <v>0.2037104898612654</v>
       </c>
       <c r="D23">
-        <v>0.3048929516192942</v>
+        <v>0.5032465590987272</v>
       </c>
       <c r="E23">
-        <v>0.05367028281211539</v>
+        <v>0.1615200429497818</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6306408228942786</v>
+        <v>0.8752747027811836</v>
       </c>
       <c r="H23">
-        <v>0.4173301877150664</v>
+        <v>0.9152739003275201</v>
       </c>
       <c r="I23">
-        <v>0.3559106162401946</v>
+        <v>0.8661299565919194</v>
       </c>
       <c r="J23">
-        <v>0.05319361787313071</v>
+        <v>0.07590796603872718</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3587012345692244</v>
+        <v>0.4254615054386761</v>
       </c>
       <c r="M23">
-        <v>0.6607310459228373</v>
+        <v>0.383268721995492</v>
       </c>
       <c r="N23">
-        <v>0.7738789480403696</v>
+        <v>1.498485809315603</v>
       </c>
       <c r="O23">
-        <v>2.160487937447755</v>
+        <v>3.611370600543495</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.927134215845626</v>
+        <v>1.336211135018914</v>
       </c>
       <c r="C24">
-        <v>0.4183103903504559</v>
+        <v>0.1853826416610218</v>
       </c>
       <c r="D24">
-        <v>0.2808843474468006</v>
+        <v>0.5012536439872264</v>
       </c>
       <c r="E24">
-        <v>0.05485561997872068</v>
+        <v>0.1629846690723173</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5748813553843632</v>
+        <v>0.8721091837639534</v>
       </c>
       <c r="H24">
-        <v>0.4007513284934419</v>
+        <v>0.9198933586668687</v>
       </c>
       <c r="I24">
-        <v>0.3522029304144958</v>
+        <v>0.8753720510220795</v>
       </c>
       <c r="J24">
-        <v>0.05056542414598653</v>
+        <v>0.07505123121971025</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3188902768737734</v>
+        <v>0.4174728953862541</v>
       </c>
       <c r="M24">
-        <v>0.5683481022677412</v>
+        <v>0.3580630853954005</v>
       </c>
       <c r="N24">
-        <v>0.8050079923700011</v>
+        <v>1.514199572412707</v>
       </c>
       <c r="O24">
-        <v>2.006968516971483</v>
+        <v>3.61389630049203</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.401724233467462</v>
+        <v>1.18342342456458</v>
       </c>
       <c r="C25">
-        <v>0.3571298055179852</v>
+        <v>0.1654252047340492</v>
       </c>
       <c r="D25">
-        <v>0.2564904118170546</v>
+        <v>0.49985854605805</v>
       </c>
       <c r="E25">
-        <v>0.05640391357697183</v>
+        <v>0.1647395911386855</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5200111487709194</v>
+        <v>0.8706407585135452</v>
       </c>
       <c r="H25">
-        <v>0.385855982164415</v>
+        <v>0.9263191731682383</v>
       </c>
       <c r="I25">
-        <v>0.3517889658443956</v>
+        <v>0.8869561812294435</v>
       </c>
       <c r="J25">
-        <v>0.04773993149043321</v>
+        <v>0.07412093451558377</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2771050282007366</v>
+        <v>0.409401329092276</v>
       </c>
       <c r="M25">
-        <v>0.4697013576548699</v>
+        <v>0.3311973073692016</v>
       </c>
       <c r="N25">
-        <v>0.8430620412726242</v>
+        <v>1.533080026243923</v>
       </c>
       <c r="O25">
-        <v>1.858772316443122</v>
+        <v>3.62372728215783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_178/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.07147481780612</v>
+        <v>2.016769596201129</v>
       </c>
       <c r="C2">
-        <v>0.1505716068514715</v>
+        <v>0.3120439141094522</v>
       </c>
       <c r="D2">
-        <v>0.4994831905231933</v>
+        <v>0.2396739840114464</v>
       </c>
       <c r="E2">
-        <v>0.1661831055101555</v>
+        <v>0.05776313579871939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8712310472525502</v>
+        <v>0.483524871994959</v>
       </c>
       <c r="H2">
-        <v>0.9322945684911446</v>
+        <v>0.3771797330012987</v>
       </c>
       <c r="I2">
-        <v>0.8968753586928635</v>
+        <v>0.3542418900889182</v>
       </c>
       <c r="J2">
-        <v>0.07343083413343265</v>
+        <v>0.04566336560577611</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4039308553848429</v>
+        <v>0.2471866644608411</v>
       </c>
       <c r="M2">
-        <v>0.3116996718322582</v>
+        <v>0.3977187312064032</v>
       </c>
       <c r="N2">
-        <v>1.548647876229367</v>
+        <v>0.8746396597492563</v>
       </c>
       <c r="O2">
-        <v>3.637079126767588</v>
+        <v>1.762716712373077</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9959660809057311</v>
+        <v>1.756636053390338</v>
       </c>
       <c r="C3">
-        <v>0.1404075253503265</v>
+        <v>0.2814218596691518</v>
       </c>
       <c r="D3">
-        <v>0.4996369840122554</v>
+        <v>0.2289231011664015</v>
       </c>
       <c r="E3">
-        <v>0.1672562153226762</v>
+        <v>0.05881509369536708</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8726728086065805</v>
+        <v>0.4609532404622456</v>
       </c>
       <c r="H3">
-        <v>0.9371218484723016</v>
+        <v>0.3726010492164988</v>
       </c>
       <c r="I3">
-        <v>0.9044650962084653</v>
+        <v>0.3574740407620318</v>
       </c>
       <c r="J3">
-        <v>0.07296005079637702</v>
+        <v>0.0442565610372867</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4005201903401172</v>
+        <v>0.2273723357496422</v>
       </c>
       <c r="M3">
-        <v>0.2986662708220607</v>
+        <v>0.3492451268148571</v>
       </c>
       <c r="N3">
-        <v>1.560240809084668</v>
+        <v>0.8981255606862391</v>
       </c>
       <c r="O3">
-        <v>3.649942526620521</v>
+        <v>1.704890912255934</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9497881442851508</v>
+        <v>1.59715595019199</v>
       </c>
       <c r="C4">
-        <v>0.1341192277122047</v>
+        <v>0.262574270020508</v>
       </c>
       <c r="D4">
-        <v>0.4999333261048235</v>
+        <v>0.2226195272172333</v>
       </c>
       <c r="E4">
-        <v>0.167962015210791</v>
+        <v>0.05952365637569823</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8740716889541602</v>
+        <v>0.4480691649034583</v>
       </c>
       <c r="H4">
-        <v>0.940470010686397</v>
+        <v>0.370392199024181</v>
       </c>
       <c r="I4">
-        <v>0.9095532417891796</v>
+        <v>0.360186277556874</v>
       </c>
       <c r="J4">
-        <v>0.07266950212124001</v>
+        <v>0.04339247826636239</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3985731334425182</v>
+        <v>0.2154135013419705</v>
       </c>
       <c r="M4">
-        <v>0.290754051827939</v>
+        <v>0.3196060883855552</v>
       </c>
       <c r="N4">
-        <v>1.567874146285376</v>
+        <v>0.913533038884637</v>
       </c>
       <c r="O4">
-        <v>3.659723098537683</v>
+        <v>1.672703032703339</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9310181938827498</v>
+        <v>1.532210757355642</v>
       </c>
       <c r="C5">
-        <v>0.13154489459491</v>
+        <v>0.2548806752419779</v>
       </c>
       <c r="D5">
-        <v>0.5001049640361686</v>
+        <v>0.2201226621753847</v>
       </c>
       <c r="E5">
-        <v>0.1682614480287565</v>
+        <v>0.05982789008823453</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.87477090813519</v>
+        <v>0.4430516098134305</v>
       </c>
       <c r="H5">
-        <v>0.9419311205421934</v>
+        <v>0.3696380439599238</v>
       </c>
       <c r="I5">
-        <v>0.9117343536879936</v>
+        <v>0.3614679151561155</v>
       </c>
       <c r="J5">
-        <v>0.07255073599408668</v>
+        <v>0.0430402131967984</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3978168245154734</v>
+        <v>0.2105895058226679</v>
       </c>
       <c r="M5">
-        <v>0.2875527584070099</v>
+        <v>0.3075552903281888</v>
       </c>
       <c r="N5">
-        <v>1.571114498157982</v>
+        <v>0.920053973502867</v>
       </c>
       <c r="O5">
-        <v>3.66418231649115</v>
+        <v>1.660382600531534</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.927904396607147</v>
+        <v>1.521428856437495</v>
       </c>
       <c r="C6">
-        <v>0.1311167201082952</v>
+        <v>0.253602326826325</v>
       </c>
       <c r="D6">
-        <v>0.5001365402246307</v>
+        <v>0.2197123188668257</v>
       </c>
       <c r="E6">
-        <v>0.1683118826847343</v>
+        <v>0.05987933573477022</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8748948143502062</v>
+        <v>0.4422321589634279</v>
       </c>
       <c r="H6">
-        <v>0.9421795804514659</v>
+        <v>0.3695214764044792</v>
       </c>
       <c r="I6">
-        <v>0.9121030282148546</v>
+        <v>0.3616911952980963</v>
       </c>
       <c r="J6">
-        <v>0.07253099316139355</v>
+        <v>0.04298170921128097</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3976934868821189</v>
+        <v>0.2097913854313234</v>
       </c>
       <c r="M6">
-        <v>0.2870225835476461</v>
+        <v>0.3055558088865737</v>
       </c>
       <c r="N6">
-        <v>1.571660394346473</v>
+        <v>0.9211512335889722</v>
       </c>
       <c r="O6">
-        <v>3.664951374101605</v>
+        <v>1.658383829557721</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9495348101247316</v>
+        <v>1.596279919016439</v>
       </c>
       <c r="C7">
-        <v>0.1340845569419002</v>
+        <v>0.2624705663852751</v>
       </c>
       <c r="D7">
-        <v>0.4999354347403511</v>
+        <v>0.2225855662953791</v>
       </c>
       <c r="E7">
-        <v>0.1679660056084815</v>
+        <v>0.05952769700961369</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8740805958796329</v>
+        <v>0.448000569688304</v>
       </c>
       <c r="H7">
-        <v>0.9404893240335497</v>
+        <v>0.3703814443219073</v>
       </c>
       <c r="I7">
-        <v>0.9095822211207292</v>
+        <v>0.3602028565333626</v>
       </c>
       <c r="J7">
-        <v>0.0726679018671792</v>
+        <v>0.04338772816856995</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3985627830592762</v>
+        <v>0.2153482471112653</v>
       </c>
       <c r="M7">
-        <v>0.2907107845638492</v>
+        <v>0.3194434612584161</v>
       </c>
       <c r="N7">
-        <v>1.567917321437456</v>
+        <v>0.9136200092111864</v>
       </c>
       <c r="O7">
-        <v>3.659781319422422</v>
+        <v>1.672533699188193</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.045401927692637</v>
+        <v>1.927014604037936</v>
       </c>
       <c r="C8">
-        <v>0.1470769771098048</v>
+        <v>0.3014938720956621</v>
       </c>
       <c r="D8">
-        <v>0.4994943727652981</v>
+        <v>0.2359035303719423</v>
       </c>
       <c r="E8">
-        <v>0.16654338968047</v>
+        <v>0.0581126829438281</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8716215640661744</v>
+        <v>0.4755321914328619</v>
       </c>
       <c r="H8">
-        <v>0.9338793336329445</v>
+        <v>0.3754725486735282</v>
       </c>
       <c r="I8">
-        <v>0.8994034793374617</v>
+        <v>0.3552012417497608</v>
       </c>
       <c r="J8">
-        <v>0.0732688213376953</v>
+        <v>0.04517831785448934</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4027244095570524</v>
+        <v>0.240309944049784</v>
       </c>
       <c r="M8">
-        <v>0.3071871698101347</v>
+        <v>0.3809769283177076</v>
       </c>
       <c r="N8">
-        <v>1.552538270933205</v>
+        <v>0.8825290800505456</v>
       </c>
       <c r="O8">
-        <v>3.641123858186802</v>
+        <v>1.742066546643741</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.234807303640537</v>
+        <v>2.578353059686208</v>
       </c>
       <c r="C9">
-        <v>0.1721727956166887</v>
+        <v>0.3777385897333829</v>
       </c>
       <c r="D9">
-        <v>0.5002274296283673</v>
+        <v>0.2645202284742112</v>
       </c>
       <c r="E9">
-        <v>0.1641249814005548</v>
+        <v>0.0558474917658911</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.8708756163105136</v>
+        <v>0.537846314523108</v>
       </c>
       <c r="H9">
-        <v>0.9239615807618975</v>
+        <v>0.3904997728505606</v>
       </c>
       <c r="I9">
-        <v>0.8828382079542898</v>
+        <v>0.3514791035556186</v>
       </c>
       <c r="J9">
-        <v>0.0744351159199077</v>
+        <v>0.0486908395760004</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4120470853220581</v>
+        <v>0.2910393334403523</v>
       </c>
       <c r="M9">
-        <v>0.3402034879359448</v>
+        <v>0.5028161354577492</v>
       </c>
       <c r="N9">
-        <v>1.526461673794842</v>
+        <v>0.8296719687401293</v>
       </c>
       <c r="O9">
-        <v>3.619466189120004</v>
+        <v>1.906541680601435</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.374762587539237</v>
+        <v>3.059871032445756</v>
       </c>
       <c r="C10">
-        <v>0.1903721637962406</v>
+        <v>0.4337119274908332</v>
       </c>
       <c r="D10">
-        <v>0.5017353195370333</v>
+        <v>0.2872752368022873</v>
       </c>
       <c r="E10">
-        <v>0.1625733925628623</v>
+        <v>0.05451203785557901</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.8728151257351158</v>
+        <v>0.5895697708465235</v>
       </c>
       <c r="H10">
-        <v>0.9185261115771794</v>
+        <v>0.4050022941328564</v>
       </c>
       <c r="I10">
-        <v>0.87273646567618</v>
+        <v>0.352910990267727</v>
       </c>
       <c r="J10">
-        <v>0.07528426341360017</v>
+        <v>0.05127781974503165</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4195984328497389</v>
+        <v>0.3295975307403864</v>
       </c>
       <c r="M10">
-        <v>0.3648793957207772</v>
+        <v>0.593333536486</v>
       </c>
       <c r="N10">
-        <v>1.509782812940124</v>
+        <v>0.7961921148404514</v>
       </c>
       <c r="O10">
-        <v>3.612651561239375</v>
+        <v>2.047173659808323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.438593411178601</v>
+        <v>3.279883825978175</v>
       </c>
       <c r="C11">
-        <v>0.1985986680425356</v>
+        <v>0.4591971352421638</v>
       </c>
       <c r="D11">
-        <v>0.5026307893978412</v>
+        <v>0.2980513390861574</v>
       </c>
       <c r="E11">
-        <v>0.1619161923885155</v>
+        <v>0.05398010986811919</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8742382633086692</v>
+        <v>0.6145948700601878</v>
       </c>
       <c r="H11">
-        <v>0.9164543427391152</v>
+        <v>0.4124432059091987</v>
       </c>
       <c r="I11">
-        <v>0.8685899390281406</v>
+        <v>0.3545745106700231</v>
       </c>
       <c r="J11">
-        <v>0.07566881501891132</v>
+        <v>0.05245746230242077</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4231849100983425</v>
+        <v>0.3474663103967259</v>
       </c>
       <c r="M11">
-        <v>0.3761937301382119</v>
+        <v>0.6347987495968539</v>
       </c>
       <c r="N11">
-        <v>1.502731829240467</v>
+        <v>0.7822202870798876</v>
       </c>
       <c r="O11">
-        <v>3.611526225930049</v>
+        <v>2.116074356154911</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.46278681161067</v>
+        <v>3.363363011856791</v>
       </c>
       <c r="C12">
-        <v>0.20170615669889</v>
+        <v>0.4688536695654761</v>
       </c>
       <c r="D12">
-        <v>0.5029999156200375</v>
+        <v>0.3021973067231158</v>
       </c>
       <c r="E12">
-        <v>0.1616743013841777</v>
+        <v>0.05378992403757366</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8748549659474492</v>
+        <v>0.624304495001482</v>
       </c>
       <c r="H12">
-        <v>0.9157273743949332</v>
+        <v>0.4153903524207436</v>
       </c>
       <c r="I12">
-        <v>0.8670842830317795</v>
+        <v>0.3553595516817722</v>
       </c>
       <c r="J12">
-        <v>0.07581417834400028</v>
+        <v>0.05290468769694101</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.424564649336503</v>
+        <v>0.3542842030893638</v>
       </c>
       <c r="M12">
-        <v>0.3804907399311119</v>
+        <v>0.6505480026249302</v>
       </c>
       <c r="N12">
-        <v>1.5001388017549</v>
+        <v>0.7771191190618794</v>
       </c>
       <c r="O12">
-        <v>3.611383926879142</v>
+        <v>2.142929292249562</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.457575374548526</v>
+        <v>3.345376498080725</v>
       </c>
       <c r="C13">
-        <v>0.2010372489195333</v>
+        <v>0.4667736589778144</v>
       </c>
       <c r="D13">
-        <v>0.5029190835971349</v>
+        <v>0.3013014245843522</v>
       </c>
       <c r="E13">
-        <v>0.1617260869121377</v>
+        <v>0.05383037767809284</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8747186879254087</v>
+        <v>0.6222026831025573</v>
       </c>
       <c r="H13">
-        <v>0.9158813810095694</v>
+        <v>0.4147497399402482</v>
       </c>
       <c r="I13">
-        <v>0.8674056823011185</v>
+        <v>0.3551834221494019</v>
       </c>
       <c r="J13">
-        <v>0.07578288337386141</v>
+        <v>0.05280834460219452</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4242665386103539</v>
+        <v>0.3528134940616638</v>
       </c>
       <c r="M13">
-        <v>0.3795647500912693</v>
+        <v>0.6471539195591944</v>
       </c>
       <c r="N13">
-        <v>1.500693832281407</v>
+        <v>0.7782091671460805</v>
       </c>
       <c r="O13">
-        <v>3.611401951460124</v>
+        <v>2.137110713700224</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.440583383960075</v>
+        <v>3.286748244163505</v>
       </c>
       <c r="C14">
-        <v>0.1988544784589692</v>
+        <v>0.4599914515427201</v>
       </c>
       <c r="D14">
-        <v>0.5026605563254236</v>
+        <v>0.2983910967071068</v>
       </c>
       <c r="E14">
-        <v>0.1618961521422211</v>
+        <v>0.05396423559528252</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8742874406492973</v>
+        <v>0.6153889060841067</v>
       </c>
       <c r="H14">
-        <v>0.916393381354851</v>
+        <v>0.412683026920007</v>
       </c>
       <c r="I14">
-        <v>0.8684647742188147</v>
+        <v>0.3546359310809706</v>
       </c>
       <c r="J14">
-        <v>0.07568077937137474</v>
+        <v>0.05249424467380592</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4232979896357136</v>
+        <v>0.348026168192817</v>
       </c>
       <c r="M14">
-        <v>0.3765469985876706</v>
+        <v>0.6360934678602845</v>
       </c>
       <c r="N14">
-        <v>1.502516956098489</v>
+        <v>0.7817967580088805</v>
       </c>
       <c r="O14">
-        <v>3.611508830966329</v>
+        <v>2.118268091551812</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.430178123666792</v>
+        <v>3.250859051706641</v>
       </c>
       <c r="C15">
-        <v>0.1975164596128138</v>
+        <v>0.4558379944174078</v>
       </c>
       <c r="D15">
-        <v>0.5025061089502003</v>
+        <v>0.296617069364288</v>
       </c>
       <c r="E15">
-        <v>0.162001230076104</v>
+        <v>0.05404770321993269</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8740334205002114</v>
+        <v>0.6112461920902348</v>
       </c>
       <c r="H15">
-        <v>0.9167144908135754</v>
+        <v>0.4114342119607102</v>
       </c>
       <c r="I15">
-        <v>0.8691219042610498</v>
+        <v>0.3543210698516326</v>
       </c>
       <c r="J15">
-        <v>0.07561820384416151</v>
+        <v>0.05230192078730056</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4227075364970716</v>
+        <v>0.3451006109819446</v>
       </c>
       <c r="M15">
-        <v>0.3747001597876292</v>
+        <v>0.6293249581821314</v>
       </c>
       <c r="N15">
-        <v>1.503643700538397</v>
+        <v>0.7840192281661231</v>
       </c>
       <c r="O15">
-        <v>3.61161125880335</v>
+        <v>2.106827606762351</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.370594265970794</v>
+        <v>3.045514328365016</v>
       </c>
       <c r="C16">
-        <v>0.1898334723956054</v>
+        <v>0.4320470808942218</v>
       </c>
       <c r="D16">
-        <v>0.5016810062443682</v>
+        <v>0.2865798942905968</v>
       </c>
       <c r="E16">
-        <v>0.1626173192511633</v>
+        <v>0.05454835305700456</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8727330051320337</v>
+        <v>0.5879659391154775</v>
       </c>
       <c r="H16">
-        <v>0.9186695661761775</v>
+        <v>0.4045336712547112</v>
       </c>
       <c r="I16">
-        <v>0.8730164825764639</v>
+        <v>0.3528234455209791</v>
       </c>
       <c r="J16">
-        <v>0.07525909645992357</v>
+        <v>0.05120079359284802</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4193670810626742</v>
+        <v>0.3284367210755761</v>
       </c>
       <c r="M16">
-        <v>0.3641417453189675</v>
+        <v>0.590629977320198</v>
       </c>
       <c r="N16">
-        <v>1.510254395165269</v>
+        <v>0.7971312601345346</v>
       </c>
       <c r="O16">
-        <v>3.612764830256282</v>
+        <v>2.042774617015766</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.334082485328167</v>
+        <v>2.919807738539021</v>
       </c>
       <c r="C17">
-        <v>0.1851066509414636</v>
+        <v>0.4174596982868763</v>
       </c>
       <c r="D17">
-        <v>0.5012284266735918</v>
+        <v>0.2805341145615046</v>
       </c>
       <c r="E17">
-        <v>0.1630077128354461</v>
+        <v>0.05487510347514224</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.872073779239372</v>
+        <v>0.5740798621711463</v>
       </c>
       <c r="H17">
-        <v>0.9199715551005596</v>
+        <v>0.4005221007892459</v>
       </c>
       <c r="I17">
-        <v>0.8755206344861826</v>
+        <v>0.3521705485831319</v>
       </c>
       <c r="J17">
-        <v>0.07503834605441995</v>
+        <v>0.05052608724157182</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4173564775657894</v>
+        <v>0.3183009501970417</v>
       </c>
       <c r="M17">
-        <v>0.3576871164573063</v>
+        <v>0.5669697249191188</v>
       </c>
       <c r="N17">
-        <v>1.514447136715845</v>
+        <v>0.8055033875997495</v>
       </c>
       <c r="O17">
-        <v>3.613978189044218</v>
+        <v>2.00478020372762</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.313097450148803</v>
+        <v>2.847594067023465</v>
       </c>
       <c r="C18">
-        <v>0.1823829783917859</v>
+        <v>0.4090713870675415</v>
       </c>
       <c r="D18">
-        <v>0.5009878420467544</v>
+        <v>0.2770964525066262</v>
       </c>
       <c r="E18">
-        <v>0.1632368346904656</v>
+        <v>0.05507013160113061</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.8717455157849798</v>
+        <v>0.5662326040621934</v>
       </c>
       <c r="H18">
-        <v>0.9207581594697984</v>
+        <v>0.3982936422279977</v>
       </c>
       <c r="I18">
-        <v>0.8770031998796526</v>
+        <v>0.3518896809227954</v>
       </c>
       <c r="J18">
-        <v>0.07491121399191769</v>
+        <v>0.05013827114944291</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4162142841872765</v>
+        <v>0.3125017751068526</v>
       </c>
       <c r="M18">
-        <v>0.353982992945582</v>
+        <v>0.5533877465948294</v>
       </c>
       <c r="N18">
-        <v>1.516909176532216</v>
+        <v>0.8104367006434074</v>
       </c>
       <c r="O18">
-        <v>3.61486195342917</v>
+        <v>1.983387007802492</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.305995001580641</v>
+        <v>2.823158359764079</v>
       </c>
       <c r="C19">
-        <v>0.1814599479391461</v>
+        <v>0.4062315114087198</v>
       </c>
       <c r="D19">
-        <v>0.5009097753710421</v>
+        <v>0.2759392153318458</v>
       </c>
       <c r="E19">
-        <v>0.1633151981375782</v>
+        <v>0.0551373713586365</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.8716431139704781</v>
+        <v>0.5635991103597178</v>
       </c>
       <c r="H19">
-        <v>0.9210309735205726</v>
+        <v>0.3975524352239432</v>
       </c>
       <c r="I19">
-        <v>0.8775124262255005</v>
+        <v>0.351810560693778</v>
       </c>
       <c r="J19">
-        <v>0.0748681416729724</v>
+        <v>0.05000700408826475</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4158300093917546</v>
+        <v>0.3105434169823269</v>
       </c>
       <c r="M19">
-        <v>0.3527302936899446</v>
+        <v>0.5487935502603847</v>
       </c>
       <c r="N19">
-        <v>1.517751454827653</v>
+        <v>0.8121270259714564</v>
       </c>
       <c r="O19">
-        <v>3.61519310812119</v>
+        <v>1.976221049795157</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.337967626289696</v>
+        <v>2.933179981729495</v>
       </c>
       <c r="C20">
-        <v>0.1856103405635281</v>
+        <v>0.4190123286369385</v>
       </c>
       <c r="D20">
-        <v>0.5012745635633564</v>
+        <v>0.2811735585450066</v>
       </c>
       <c r="E20">
-        <v>0.1629656811028255</v>
+        <v>0.05483958389817367</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.8721386862603566</v>
+        <v>0.5755434788388811</v>
       </c>
       <c r="H20">
-        <v>0.919829051304248</v>
+        <v>0.4009409173097396</v>
       </c>
       <c r="I20">
-        <v>0.8752496911594463</v>
+        <v>0.3522301861732622</v>
       </c>
       <c r="J20">
-        <v>0.07506186217337785</v>
+        <v>0.05059788346324368</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4175690356901498</v>
+        <v>0.3193767188158319</v>
       </c>
       <c r="M20">
-        <v>0.3583733546758552</v>
+        <v>0.5694855875379545</v>
       </c>
       <c r="N20">
-        <v>1.513995587826635</v>
+        <v>0.8045998980842413</v>
       </c>
       <c r="O20">
-        <v>3.613829788646285</v>
+        <v>2.008776757264968</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.445573757695854</v>
+        <v>3.303964085918437</v>
       </c>
       <c r="C21">
-        <v>0.1994958216035059</v>
+        <v>0.4619833701381708</v>
       </c>
       <c r="D21">
-        <v>0.5027356777938081</v>
+        <v>0.2992441236436889</v>
       </c>
       <c r="E21">
-        <v>0.1618460106488566</v>
+        <v>0.0539246100271864</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.8744119970511264</v>
+        <v>0.6173837996828695</v>
       </c>
       <c r="H21">
-        <v>0.9162414327394544</v>
+        <v>0.4132864904054827</v>
       </c>
       <c r="I21">
-        <v>0.8681519415071577</v>
+        <v>0.3547924538665725</v>
       </c>
       <c r="J21">
-        <v>0.07571077686836958</v>
+        <v>0.05258648833710566</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.423581890377605</v>
+        <v>0.3494308931630457</v>
       </c>
       <c r="M21">
-        <v>0.377433048050662</v>
+        <v>0.6393408591803151</v>
       </c>
       <c r="N21">
-        <v>1.501979370680914</v>
+        <v>0.7807377761584036</v>
       </c>
       <c r="O21">
-        <v>3.611469735421451</v>
+        <v>2.123781439736774</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.516028386314701</v>
+        <v>3.547268812701532</v>
       </c>
       <c r="C22">
-        <v>0.2085257708558572</v>
+        <v>0.490102822993947</v>
       </c>
       <c r="D22">
-        <v>0.5038655998717019</v>
+        <v>0.3114370022815649</v>
       </c>
       <c r="E22">
-        <v>0.1611548980226853</v>
+        <v>0.05339234879427757</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.8763511723666397</v>
+        <v>0.6460971801619309</v>
       </c>
       <c r="H22">
-        <v>0.9142322173255053</v>
+        <v>0.4221136459983512</v>
       </c>
       <c r="I22">
-        <v>0.8638893643298147</v>
+        <v>0.3573759783529624</v>
       </c>
       <c r="J22">
-        <v>0.07613337189091141</v>
+        <v>0.05388925128735522</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4276375792486391</v>
+        <v>0.3693746084397418</v>
       </c>
       <c r="M22">
-        <v>0.3899624779303821</v>
+        <v>0.6852738863348122</v>
       </c>
       <c r="N22">
-        <v>1.494575009542196</v>
+        <v>0.7662524210820365</v>
       </c>
       <c r="O22">
-        <v>3.611581692656188</v>
+        <v>2.203423656535762</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.478414258285852</v>
+        <v>3.4173141233926</v>
       </c>
       <c r="C23">
-        <v>0.2037104898612654</v>
+        <v>0.475090792746073</v>
       </c>
       <c r="D23">
-        <v>0.5032465590987272</v>
+        <v>0.3048929516191663</v>
       </c>
       <c r="E23">
-        <v>0.1615200429497818</v>
+        <v>0.05367028281211184</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.8752747027811836</v>
+        <v>0.6306408228942075</v>
       </c>
       <c r="H23">
-        <v>0.9152739003275201</v>
+        <v>0.4173301877150664</v>
       </c>
       <c r="I23">
-        <v>0.8661299565919194</v>
+        <v>0.3559106162401804</v>
       </c>
       <c r="J23">
-        <v>0.07590796603872718</v>
+        <v>0.05319361787315557</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4254615054386761</v>
+        <v>0.3587012345691818</v>
       </c>
       <c r="M23">
-        <v>0.383268721995492</v>
+        <v>0.6607310459228231</v>
       </c>
       <c r="N23">
-        <v>1.498485809315603</v>
+        <v>0.7738789480404122</v>
       </c>
       <c r="O23">
-        <v>3.611370600543495</v>
+        <v>2.160487937447755</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.336211135018914</v>
+        <v>2.927134215845626</v>
       </c>
       <c r="C24">
-        <v>0.1853826416610218</v>
+        <v>0.4183103903499159</v>
       </c>
       <c r="D24">
-        <v>0.5012536439872264</v>
+        <v>0.2808843474466727</v>
       </c>
       <c r="E24">
-        <v>0.1629846690723173</v>
+        <v>0.05485561997870292</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.8721091837639534</v>
+        <v>0.5748813553843064</v>
       </c>
       <c r="H24">
-        <v>0.9198933586668687</v>
+        <v>0.4007513284933282</v>
       </c>
       <c r="I24">
-        <v>0.8753720510220795</v>
+        <v>0.3522029304144922</v>
       </c>
       <c r="J24">
-        <v>0.07505123121971025</v>
+        <v>0.05056542414590481</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4174728953862541</v>
+        <v>0.3188902768737876</v>
       </c>
       <c r="M24">
-        <v>0.3580630853954005</v>
+        <v>0.5683481022677555</v>
       </c>
       <c r="N24">
-        <v>1.514199572412707</v>
+        <v>0.8050079923700437</v>
       </c>
       <c r="O24">
-        <v>3.61389630049203</v>
+        <v>2.006968516971426</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.18342342456458</v>
+        <v>2.401724233467803</v>
       </c>
       <c r="C25">
-        <v>0.1654252047340492</v>
+        <v>0.3571298055179284</v>
       </c>
       <c r="D25">
-        <v>0.49985854605805</v>
+        <v>0.2564904118171825</v>
       </c>
       <c r="E25">
-        <v>0.1647395911386855</v>
+        <v>0.05640391357697006</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8706407585135452</v>
+        <v>0.520011148770962</v>
       </c>
       <c r="H25">
-        <v>0.9263191731682383</v>
+        <v>0.385855982164415</v>
       </c>
       <c r="I25">
-        <v>0.8869561812294435</v>
+        <v>0.351788965844392</v>
       </c>
       <c r="J25">
-        <v>0.07412093451558377</v>
+        <v>0.04773993149033373</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.409401329092276</v>
+        <v>0.2771050282007508</v>
       </c>
       <c r="M25">
-        <v>0.3311973073692016</v>
+        <v>0.4697013576548841</v>
       </c>
       <c r="N25">
-        <v>1.533080026243923</v>
+        <v>0.8430620412726313</v>
       </c>
       <c r="O25">
-        <v>3.62372728215783</v>
+        <v>1.858772316443122</v>
       </c>
     </row>
   </sheetData>
